--- a/application/views/plugins/reports/Sell_analyse/Sell_analyse.xlsx
+++ b/application/views/plugins/reports/Sell_analyse/Sell_analyse.xlsx
@@ -357,16 +357,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3"/>
+  <dimension ref="B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>

--- a/application/views/plugins/reports/Sell_analyse/Sell_analyse.xlsx
+++ b/application/views/plugins/reports/Sell_analyse/Sell_analyse.xlsx
@@ -16,21 +16,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>{$v-&gt;rows[]-&gt;product_code}</t>
+    <t>{$v-&gt;rows[]-&gt;cathegory}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;group_by}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;avg}</t>
+  </si>
+  <si>
+    <t>Эффективность запасов</t>
+  </si>
+  <si>
+    <t>Категория</t>
+  </si>
+  <si>
+    <t>Групировка</t>
+  </si>
+  <si>
+    <t>Среднее</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -42,7 +69,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -50,12 +77,162 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -357,21 +534,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3"/>
+  <dimension ref="B1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="1" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/application/views/plugins/reports/Sell_analyse/Sell_analyse.xlsx
+++ b/application/views/plugins/reports/Sell_analyse/Sell_analyse.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,34 +16,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>{$v-&gt;rows[]-&gt;cathegory}</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>{$v-&gt;rows[]-&gt;group_by}</t>
   </si>
   <si>
-    <t>{$v-&gt;rows[]-&gt;avg}</t>
-  </si>
-  <si>
     <t>Эффективность запасов</t>
   </si>
   <si>
-    <t>Категория</t>
-  </si>
-  <si>
-    <t>Групировка</t>
-  </si>
-  <si>
-    <t>Среднее</t>
+    <t>Всего</t>
+  </si>
+  <si>
+    <t>Группа</t>
+  </si>
+  <si>
+    <t>Продано</t>
+  </si>
+  <si>
+    <t>На складе</t>
+  </si>
+  <si>
+    <t>{$v-&gt;total_stock}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;sell_sum}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;stock_sum}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;total_sell}</t>
+  </si>
+  <si>
+    <t>Продано %</t>
+  </si>
+  <si>
+    <t>На складе %</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;sell_proc}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;stock_proc}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,16 +81,38 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -99,7 +142,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -108,28 +151,73 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -138,10 +226,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -152,96 +238,55 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -290,7 +335,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,7 +370,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -534,56 +579,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D4"/>
+  <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
+      <c r="C5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
+    <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/application/views/plugins/reports/Sell_analyse/Sell_analyse.xlsx
+++ b/application/views/plugins/reports/Sell_analyse/Sell_analyse.xlsx
@@ -7,16 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Отчет" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>{$v-&gt;rows[]-&gt;group_by}</t>
   </si>
@@ -48,16 +46,25 @@
     <t>{$v-&gt;total_sell}</t>
   </si>
   <si>
-    <t>Продано %</t>
-  </si>
-  <si>
-    <t>На складе %</t>
-  </si>
-  <si>
     <t>{$v-&gt;rows[]-&gt;sell_proc}</t>
   </si>
   <si>
     <t>{$v-&gt;rows[]-&gt;stock_proc}</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>кол-во</t>
+  </si>
+  <si>
+    <t>сумма</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;sell_sum_qty}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;stock_sum_qty}</t>
   </si>
 </sst>
 </file>
@@ -73,15 +80,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -91,6 +89,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -112,7 +119,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -151,6 +158,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -213,6 +235,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -233,6 +268,43 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -241,37 +313,64 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -579,119 +678,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F6"/>
+  <dimension ref="B1:H7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="17"/>
+      <c r="C4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>5</v>
+      <c r="G6" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="12">
-        <v>1</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
+    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:F2"/>
+  <mergeCells count="4">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/application/views/plugins/reports/Sell_analyse/Sell_analyse.xlsx
+++ b/application/views/plugins/reports/Sell_analyse/Sell_analyse.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>{$v-&gt;rows[]-&gt;group_by}</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>{$v-&gt;rows[]-&gt;stock_sum_qty}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;total_sell_qty}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;total_stock_qty}</t>
   </si>
 </sst>
 </file>
@@ -105,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,7 +120,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,51 +327,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -370,7 +353,51 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -681,7 +708,7 @@
   <dimension ref="B1:H7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,102 +720,106 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="11" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="14"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="17"/>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="25" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="13">
         <v>1</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="15">
         <v>1</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/application/views/plugins/reports/Sell_analyse/Sell_analyse.xlsx
+++ b/application/views/plugins/reports/Sell_analyse/Sell_analyse.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -344,15 +344,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -367,38 +358,47 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -461,7 +461,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -496,7 +496,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -708,7 +708,7 @@
   <dimension ref="B1:H7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,77 +720,77 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="18" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="21"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="22"/>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="10">
         <v>1</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="12">
         <v>1</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="5" t="s">
